--- a/feature/cpts/ig/ValueSet-sas-valueset-typeconsultation.xlsx
+++ b/feature/cpts/ig/ValueSet-sas-valueset-typeconsultation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T13:56:11+00:00</t>
+    <t>2024-07-01T09:27:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/feature/cpts/ig/ValueSet-sas-valueset-typeconsultation.xlsx
+++ b/feature/cpts/ig/ValueSet-sas-valueset-typeconsultation.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T09:27:46+00:00</t>
+    <t>2024-07-01T12:43:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
